--- a/CountryData/South Africa/South Africa_Workbook.xlsx
+++ b/CountryData/South Africa/South Africa_Workbook.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/South Africa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3E1102F0-3483-4C8A-9F29-1BC958FC0B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:40009_{3E1102F0-3483-4C8A-9F29-1BC958FC0B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C93FF2B2-96BD-4BD8-ACE0-09720DAE24C2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="7200" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="South Africa_Popup" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t xml:space="preserve">The Preferential Procurement Framework Act, 2000 </t>
   </si>
   <si>
-    <t xml:space="preserve">Codes of good practice for minerals industry, 2009  </t>
-  </si>
-  <si>
     <t>Mineral and Petroleum Resources Development Act, 2002</t>
   </si>
   <si>
@@ -128,138 +125,6 @@
   </si>
   <si>
     <t>Black Business Supplier Development Program (BBSDP)</t>
-  </si>
-  <si>
-    <r>
-      <t>March 2019 –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SA Mining Supply Chain Firms Struggling but Current Efforts Raise Hopes of Better Fortunes </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">February 2019 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Local Manufacturers to Benefit from Mining Charter 3’s Implementation </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">September 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Stop Exporting Jobs-Mines Told </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">September 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mantashe Confirms Gazetting of Mining Charter 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">August 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mining Commission Calls for Mining Licence Holders to Submit Local Content Compliance Plan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">June 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Multotec is First up for SABS Local Content Verification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>June 2018 –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Public has 30 days to Comment as Mantashe Releases Long-awaited Draft Mining Charter </t>
-    </r>
   </si>
   <si>
     <r>
@@ -275,220 +140,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>South African Miners Win Court Fight on Black Ownership Rule</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">July 2017 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chamber’s Interdict Application Likely to Succeed - Attorney</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bam and De Bruyne (2019) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Beneficiation is Touted as a Silver Bullet. Why it might not be.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mining Review Africa (2019) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TECH NEWS: Transforming the Industrial Landscape in South Africa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dolo et al. (2018) –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>South Africa: Horizontal Linkages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Tim Grice (2018) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">South Africa: Direct Employment </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Geipel and Nickerson (2018) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">South Africa: Upstream Linkages </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Geipel et al. (2017) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Relationship Between Local Procurement Strategies of Mining &amp; Their Regulatory Environments: A Comparison of South Africa and Namibia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Korinek and Ramdoo (2017) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Content Policies in Minerals-Exporting Countries: The Case of South Africa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">African Natural Resource Center and African Development Bank (2016) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Anglo American Corporation’s Zimele Enterprise Program</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Columbia Centre on Sustainable Investment (2015) –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Local Content: South Africa – Mining and Petroleum </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2020 COVID-19 Update, Paving the Way for SMME Success </t>
     </r>
   </si>
   <si>
@@ -515,34 +166,71 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2008 Project Report, The Anglo Zimele Model: A Corporate Risk Capital Facility Experience </t>
-    </r>
+    <t xml:space="preserve">Codes of Good Practice for Minerals Industry, 2009  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2019 – SA Mining Supply Chain Firms Struggling but Current Efforts Raise Hopes of Better Fortunes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2019 – Local Manufacturers to Benefit from Mining Charter 3’s Implementation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2018 – Stop Exporting Jobs-Mines Told </t>
+  </si>
+  <si>
+    <t>September 2018 – Mantashe Confirms Gazetting of Mining Charter 3</t>
+  </si>
+  <si>
+    <t>August 2018 – Mining Commission Calls for Mining Licence Holders to Submit Local Content Compliance Plan</t>
+  </si>
+  <si>
+    <t>June 2018 – Multotec is First up for SABS Local Content Verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2018 – Public has 30 days to Comment as Mantashe Releases Long-awaited Draft Mining Charter </t>
+  </si>
+  <si>
+    <t>July 2017 – Chamber’s Interdict Application Likely to Succeed - Attorney</t>
+  </si>
+  <si>
+    <t>Bam and De Bruyne (2019) – Beneficiation is Touted as a Silver Bullet. Why it might not be.</t>
+  </si>
+  <si>
+    <t>Mining Review Africa (2019) – TECH NEWS: Transforming the Industrial Landscape in South Africa</t>
+  </si>
+  <si>
+    <t>Dolo et al. (2018) – South Africa: Horizontal Linkages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim Grice (2018) – South Africa: Direct Employment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geipel and Nickerson (2018) – South Africa: Upstream Linkages </t>
+  </si>
+  <si>
+    <t>Geipel et al. (2017) – The Relationship Between Local Procurement Strategies of Mining &amp; Their Regulatory Environments: A Comparison of South Africa and Namibia</t>
+  </si>
+  <si>
+    <t>Korinek and Ramdoo (2017) – Local Content Policies in Minerals-Exporting Countries: The Case of South Africa</t>
+  </si>
+  <si>
+    <t>African Natural Resource Center and African Development Bank (2016) – Anglo American Corporation’s Zimele Enterprise Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbia Centre on Sustainable Investment (2015) – Local Content: South Africa – Mining and Petroleum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">—2020 COVID-19 Update, Paving the Way for SMME Success </t>
+  </si>
+  <si>
+    <t xml:space="preserve">—2008 Project Report, The Anglo Zimele Model: A Corporate Risk Capital Facility Experience </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="30" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -673,13 +361,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1162,42 +843,42 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1205,35 +886,44 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1590,11 +1280,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,7 +1370,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="15"/>
@@ -1691,7 +1381,7 @@
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="15"/>
@@ -1702,8 +1392,8 @@
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>15</v>
+      <c r="A15" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -1713,8 +1403,8 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>16</v>
+      <c r="A16" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -1724,8 +1414,8 @@
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>17</v>
+      <c r="A17" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1735,8 +1425,8 @@
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>18</v>
+      <c r="A18" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -1746,8 +1436,8 @@
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>19</v>
+      <c r="A19" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -1757,8 +1447,8 @@
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>20</v>
+      <c r="A20" s="26" t="s">
+        <v>19</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -1768,8 +1458,8 @@
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>21</v>
+      <c r="A21" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -1789,60 +1479,60 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>32</v>
+      <c r="A24" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>33</v>
+      <c r="A25" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>34</v>
+      <c r="A26" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>35</v>
+      <c r="A27" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>36</v>
+      <c r="A28" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>37</v>
+      <c r="A29" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B29" s="12"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>38</v>
+      <c r="A30" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>40</v>
+      <c r="A32" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B32" s="12"/>
     </row>
@@ -1852,39 +1542,39 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>41</v>
+      <c r="A35" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>42</v>
+      <c r="A36" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="B36" s="9"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>43</v>
+      <c r="A37" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>44</v>
+      <c r="A38" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>45</v>
+      <c r="A39" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>46</v>
+      <c r="A40" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1896,16 +1586,16 @@
       <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>47</v>
+      <c r="A41" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>48</v>
+      <c r="A42" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -1914,8 +1604,8 @@
       <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>49</v>
+      <c r="A43" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1925,20 +1615,20 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>50</v>
+      <c r="A47" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -1946,14 +1636,14 @@
     </row>
     <row r="48" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="24"/>
@@ -1962,7 +1652,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -1970,7 +1660,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -1978,7 +1668,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -1986,7 +1676,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -1994,7 +1684,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -2002,7 +1692,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -2016,48 +1706,48 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=ZA"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=ZA"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=ZA"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://atlas.cid.harvard.edu/countries/246/export-basket"/>
-    <hyperlink ref="A13" r:id="rId6" display="https://www.gov.za/sites/default/files/gcis_document/201409/a2-050.pdf"/>
-    <hyperlink ref="A14" r:id="rId7" display="https://www.gov.za/documents/preferential-procurement-policy-framework-act"/>
-    <hyperlink ref="A15" r:id="rId8" display="https://www.gov.za/documents/mineral-and-petroleum-resources-development-act-codes-good-practice-minerals-industry"/>
-    <hyperlink ref="A16" r:id="rId9" display="https://www.gov.za/documents/mineral-and-petroleum-resources-development-act"/>
-    <hyperlink ref="A17" r:id="rId10" display="http://bee.b1sa.co.za/docs/Petroleum and Liquid Fuels Industry.pdf"/>
-    <hyperlink ref="A18" r:id="rId11" display="https://cer.org.za/wp-content/uploads/2014/02/Regualtions.pdf"/>
-    <hyperlink ref="A19" r:id="rId12" display="https://www.gov.za/sites/default/files/gcis_document/201409/a37-050.pdf"/>
-    <hyperlink ref="A20" r:id="rId13" display="https://www.beesa.co.za/wp-content/uploads/2020/01/Mining-Charter-27-September-2018.pdf"/>
-    <hyperlink ref="A21" r:id="rId14" display="https://cer.org.za/wp-content/uploads/2004/05/Implementation-guideline-for-Mining-Charter.pdf"/>
-    <hyperlink ref="A24" r:id="rId15" display="https://www.miningweekly.com/article/sa-mining-supply-chain-firms-struggling-but-current-efforts-raise-hopes-of-better-fortunes-2019-08-23"/>
-    <hyperlink ref="A25" r:id="rId16" display="https://www.miningweekly.com/article/local-manufacturers-to-benefit-from-mining-charter-3s-implementation-2019-02-14"/>
-    <hyperlink ref="A26" r:id="rId17" display="https://lestimes.com/stop-exporting-jobs-mines-told/"/>
-    <hyperlink ref="A27" r:id="rId18" display="https://www.miningweekly.com/article/mantashe-confirms-gazetting-of-mining-charter-3-2018-09-27/rep_id:3650"/>
-    <hyperlink ref="A28" r:id="rId19" display="https://www.lexology.com/library/detail.aspx?g=4c314092-9e25-4ab8-82d3-568392931fed"/>
-    <hyperlink ref="A29" r:id="rId20" display="https://im-mining.com/2018/08/06/multotec-first-sabs-local-content-verification/"/>
-    <hyperlink ref="A30" r:id="rId21" display="https://www.news24.com/fin24/companies/mining/public-has-30-days-to-comment-as-mantashe-releases-long-awaited-draft-mining-charter-20180615-2"/>
-    <hyperlink ref="A31" r:id="rId22" display="https://www.bloomberg.com/news/articles/2018-04-04/south-africa-court-backs-mining-industry-on-black-ownership-rule"/>
-    <hyperlink ref="A32" r:id="rId23" display="https://www.miningweekly.com/article/chambers-interdict-application-likely-to-succeed-attorney-2017-07-12"/>
-    <hyperlink ref="A35" r:id="rId24" display="https://theconversation.com/beneficiation-is-touted-as-a-silver-bullet-why-it-might-not-be-110224"/>
-    <hyperlink ref="A36" r:id="rId25" display="https://www.miningreview.com/coal/tech-news-transforming-the-industrial-landscape-in-south-africa/"/>
-    <hyperlink ref="A37" r:id="rId26" display="https://www.iisd.org/sites/default/files/publications/case-study-south-africa-horizontal-linkages.pdf"/>
-    <hyperlink ref="A38" r:id="rId27" display="https://www.iisd.org/sites/default/files/publications/case-study-south-africa-direct-employment.pdf"/>
-    <hyperlink ref="A39" r:id="rId28" display="https://www.iisd.org/sites/default/files/publications/case-study-south-africa-upstream-linkages.pdf"/>
-    <hyperlink ref="A40" r:id="rId29" display="https://cirdi.ca/wp-content/uploads/2017/04/MSV-EWB-CIRDI-Local-Procurement-Regulation-SA-Namibia-Feb-2017.pdf"/>
-    <hyperlink ref="A41" r:id="rId30" display="https://www.oecd.org/trade/topics/trade-in-raw-materials/documents/trade-raw-materials-south-africa-country-note.pdf"/>
-    <hyperlink ref="A42" r:id="rId31" display="https://www.afdb.org/fileadmin/uploads/afdb/Documents/Publications/anrc/Anglo_american_corporations_Zimele_enterprise_program.pdf"/>
-    <hyperlink ref="A43" r:id="rId32" display="https://www.extractiveshub.org/servefile/getFile/id/1704"/>
-    <hyperlink ref="A46" r:id="rId33" display="https://southafrica.angloamerican.com/our-difference/zimele"/>
-    <hyperlink ref="A47" r:id="rId34" display="https://southafrica.angloamerican.com/our-stories/paving-the-way-for-smme-success"/>
-    <hyperlink ref="A48" r:id="rId35" display="https://southafrica.angloamerican.com/our-difference/hidden-transformation/procurement-and-enterprise-development"/>
-    <hyperlink ref="A49" r:id="rId36" display="https://commdev.org/pdf/publications/The-Anglo-Zimele-Model.pdf"/>
-    <hyperlink ref="A50" r:id="rId37" display="https://www.za.undp.org/content/south_africa/en/home/operations/projects/poverty_reduction/supplier-development-programme-.html"/>
-    <hyperlink ref="A51" r:id="rId38" display="https://edgegrowth.com/sme-growth-support/anglo-american-thermal-coal/"/>
-    <hyperlink ref="A52" r:id="rId39" display="https://miningtara.co.za/"/>
-    <hyperlink ref="A53" r:id="rId40" display="https://memsa.org.za/"/>
-    <hyperlink ref="A54" r:id="rId41" display="http://www.supplierdevelopment.co.za/"/>
-    <hyperlink ref="A55" r:id="rId42" display="http://www.dsbd.gov.za/?page_id=1218"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=ZA" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=ZA" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=ZA" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://atlas.cid.harvard.edu/countries/246/export-basket" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A15" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A26" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A29" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A30" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A31" r:id="rId22" display="https://www.bloomberg.com/news/articles/2018-04-04/south-africa-court-backs-mining-industry-on-black-ownership-rule" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A32" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A35" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A36" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A37" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A38" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A40" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A41" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A42" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A43" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A46" r:id="rId33" display="https://southafrica.angloamerican.com/our-difference/zimele" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A47" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A48" r:id="rId35" display="https://southafrica.angloamerican.com/our-difference/hidden-transformation/procurement-and-enterprise-development" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A49" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A50" r:id="rId37" display="https://www.za.undp.org/content/south_africa/en/home/operations/projects/poverty_reduction/supplier-development-programme-.html" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A51" r:id="rId38" display="https://edgegrowth.com/sme-growth-support/anglo-american-thermal-coal/" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A52" r:id="rId39" display="https://miningtara.co.za/" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A53" r:id="rId40" display="https://memsa.org.za/" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A54" r:id="rId41" display="http://www.supplierdevelopment.co.za/" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A55" r:id="rId42" display="http://www.dsbd.gov.za/?page_id=1218" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId43"/>
